--- a/GoalsConcededPerClub.xlsx
+++ b/GoalsConcededPerClub.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\ECO2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>1 Conceded</t>
+  </si>
+  <si>
+    <t>AFC Bournemouth</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -555,87 +555,87 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="6">
         <v>18</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="6">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="8">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="8">
         <v>9</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="8">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E4" s="8">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
         <v>9</v>
@@ -653,9 +653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
         <v>10</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6">
         <v>15</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8">
         <v>11</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8">
         <v>18</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>8</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <v>5</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8">
         <v>10</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6">
         <v>7</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8">
         <v>9</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6">
         <v>13</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8">
         <v>11</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6">
         <v>11</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="8">
         <v>11</v>
@@ -983,9 +983,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=3"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=2"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=1"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=3"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=2"/>
+    <hyperlink ref="A2" r:id="rId3" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=1"/>
     <hyperlink ref="A5" r:id="rId4" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=5"/>
     <hyperlink ref="A6" r:id="rId5" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=16"/>
     <hyperlink ref="A7" r:id="rId6" display="http://www.soccerstats.com/team.asp?league=england_2016&amp;teamid=7"/>
